--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4742.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4742.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4742</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Keemo Mandela Angus Paul</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>19/03/2018</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1108,7 +1171,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1218,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -1164,7 +1225,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1216,7 +1277,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1317,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>22/12/2019</t>
@@ -1264,7 +1324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1364,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>07/01/2020</t>
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1364,7 +1423,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1416,7 +1475,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1468,7 +1527,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1520,7 +1579,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1572,7 +1631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1624,7 +1683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1663,7 +1722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1685,7 +1744,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1722,7 +1781,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1759,7 +1818,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1796,7 +1855,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1833,7 +1892,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1870,7 +1929,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1907,7 +1966,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1944,7 +2003,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1981,7 +2040,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2018,7 +2077,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2055,7 +2114,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2092,7 +2151,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2129,7 +2188,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2166,7 +2225,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2203,7 +2262,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2240,7 +2299,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2277,7 +2336,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2314,7 +2373,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2351,7 +2410,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2388,7 +2447,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2425,7 +2484,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2462,7 +2521,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2499,7 +2558,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2525,6 +2584,559 @@
       <c r="G23" t="inlineStr">
         <is>
           <t>0/23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4180</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4181</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12.42%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.81%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18.46%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.03%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16.43%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11.07%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.72%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.15%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.37%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4742.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4742.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2657,7 +2658,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2703,9 +2703,6 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2868,10 +2865,6 @@
           <t>4362</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2887,9 +2880,6 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2902,10 +2892,6 @@
           <t>4385</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2951,9 +2937,6 @@
       <c r="B14" t="n">
         <v>8</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2969,9 +2952,6 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3014,10 +2994,6 @@
           <t>4414</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3133,12 +3109,343 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4180</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4181</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4388</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4742.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4742.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>19/03/2018</t>
@@ -813,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>28/07/2018</t>
@@ -1172,6 +1172,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -1219,6 +1220,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -1318,6 +1320,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>22/12/2019</t>
@@ -1365,6 +1368,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>07/01/2020</t>
@@ -2591,863 +2595,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4164</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4180</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.48%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4181</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4220</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>12.42%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4221</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.81%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4228</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>18.46%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7.03%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4230</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.06%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16.43%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>11.07%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.72%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>23.15%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.37%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4161</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4164</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4180</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4181</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4220</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4221</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4228</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4230</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4387</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4388</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>